--- a/original-sources/DSHS_fac_totals.xlsx
+++ b/original-sources/DSHS_fac_totals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEE6C714-3445-408E-9CD5-E47488DBDE9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13F79DD7-682D-4F6E-B778-F2D09461846C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="4620" xr2:uid="{EC65792F-41A1-456F-806B-7C13A0F54FFB}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Number of Assisted Living Facilities with Confirmed Resident or Staff Cases of COVID-19</t>
   </si>
   <si>
-    <t>COVID-19 in Texas Assisted Living Facilities (as of June 27, 2020)</t>
-  </si>
-  <si>
-    <t>COVID-19 in Texas Nursing Homes (as of June 27, 2020)</t>
+    <t>COVID-19 in Texas Nursing Homes (as of June 28, 2020)</t>
+  </si>
+  <si>
+    <t>COVID-19 in Texas Assisted Living Facilities (as of June 28, 2020)</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9F9139-321F-4562-8C43-20E63D860525}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -537,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -579,16 +577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8">
-        <v>1607</v>
+        <v>1630</v>
       </c>
       <c r="D4" s="8">
         <v>259</v>
       </c>
       <c r="E4" s="8">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -596,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D5" s="8">
         <v>112</v>
@@ -613,16 +611,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="8">
-        <v>1980</v>
+        <v>2026</v>
       </c>
       <c r="D6" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="8">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -647,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D8" s="8">
         <v>34</v>
@@ -664,16 +662,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D9" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -684,7 +682,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="8">
         <v>42</v>
@@ -699,19 +697,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>6149</v>
+        <v>6224</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>3107</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EF1D6-84E8-4381-85A2-E83F48B2185C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -763,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="131" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,10 +808,10 @@
         <v>85</v>
       </c>
       <c r="C4" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D4" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8">
         <v>84</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>17</v>
@@ -839,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D6" s="8">
         <v>36</v>
@@ -873,16 +873,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -893,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -925,19 +925,19 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B3:B10)</f>
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:E11" si="0">SUM(C3:C10)</f>
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
